--- a/project/DCR/data/员工批导_编辑信息成功.xlsx
+++ b/project/DCR/data/员工批导_编辑信息成功.xlsx
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>wjkDealerImport20221214174800</t>
+          <t>wjkDealerImport20221215170345</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>ContactNo20221214174800</t>
+          <t>ContactNo20221215170345</t>
         </is>
       </c>
       <c r="X2" s="4" t="inlineStr"/>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>ContactNo20221214174800</t>
+          <t>ContactNo20221215170345</t>
         </is>
       </c>
       <c r="X3" s="4" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>wjk传音员工20221214174800</t>
+          <t>wjk传音员工20221215170345</t>
         </is>
       </c>
       <c r="D4" s="4" t="n"/>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>ContactNo20221214174800</t>
+          <t>ContactNo20221215170345</t>
         </is>
       </c>
       <c r="X4" s="4" t="inlineStr"/>

--- a/project/DCR/data/员工批导_编辑信息成功.xlsx
+++ b/project/DCR/data/员工批导_编辑信息成功.xlsx
@@ -16,14 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="8"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -520,51 +513,54 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -574,97 +570,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -672,20 +665,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1073,16 +1067,16 @@
   </sheetPr>
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col width="25" customWidth="1" style="5" min="1" max="38"/>
+    <col width="25" customWidth="1" style="1" min="1" max="38"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="5">
+    <row r="1" ht="18.75" customHeight="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Staff Type</t>
@@ -1274,423 +1268,433 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="1">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" s="1">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Dealer</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>SN40000301</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>wjkDealerImport20221215170345</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>wjkDealerImport20230111145944</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>SN400003</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Senegal-wjkRetailer-itel</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Retailer</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>itel</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>wjk店员</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>West Africa IV</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Kaolack Dept</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr"/>
-      <c r="M2" s="4" t="inlineStr"/>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="5" t="inlineStr"/>
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Kaolack</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>Kaolack</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="4" t="n"/>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="Q2" s="5" t="n"/>
+      <c r="R2" s="5" t="n"/>
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>On Service</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>SN400003</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>Senegal-wjkRetailer-itel</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>ContactNo20221215170345</t>
-        </is>
-      </c>
-      <c r="X2" s="4" t="inlineStr"/>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
+        <is>
+          <t>ContactNo20230111145944</t>
+        </is>
+      </c>
+      <c r="X2" s="5" t="inlineStr"/>
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>2022-12-13</t>
         </is>
       </c>
-      <c r="AA2" s="4" t="inlineStr"/>
-      <c r="AB2" s="4" t="inlineStr"/>
-      <c r="AC2" s="4" t="inlineStr"/>
-      <c r="AD2" s="4" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="5" t="inlineStr"/>
+      <c r="AC2" s="5" t="inlineStr"/>
+      <c r="AD2" s="5" t="inlineStr">
         <is>
           <t>pakadmin</t>
         </is>
       </c>
-      <c r="AE2" s="4" t="inlineStr">
+      <c r="AE2" s="5" t="inlineStr">
         <is>
           <t>2022-12-13 08:46:54</t>
         </is>
       </c>
-      <c r="AF2" s="4" t="inlineStr">
+      <c r="AF2" s="5" t="inlineStr">
         <is>
           <t>pakadmin</t>
         </is>
       </c>
-      <c r="AG2" s="4" t="inlineStr">
+      <c r="AG2" s="5" t="inlineStr">
         <is>
           <t>2022-12-13 08:46:54</t>
         </is>
       </c>
-      <c r="AH2" s="4" t="n"/>
-      <c r="AI2" s="4" t="n"/>
-      <c r="AJ2" s="4" t="n"/>
-      <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="4" t="inlineStr">
+      <c r="AH2" s="5" t="n"/>
+      <c r="AI2" s="5" t="n"/>
+      <c r="AJ2" s="5" t="n"/>
+      <c r="AK2" s="5" t="n"/>
+      <c r="AL2" s="5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
-    <row r="3" customFormat="1" s="1">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="3" s="1">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Transsion</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>18650493</v>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>18645012</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>陈彦冰</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>Infinix,itel,TECNO</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>can_promoter</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>West Africa IV</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>Kaolack Dept</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>Kaolack</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>Kaolack</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>Kaolack</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>Kaolack</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="n"/>
+      <c r="R3" s="5" t="n"/>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>On Service</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>18650493</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>翁佳柯</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t>ContactNo20230111145944</t>
+        </is>
+      </c>
+      <c r="X3" s="5" t="inlineStr">
+        <is>
+          <t>YANBING.CHEN@TRANSSION.COM</t>
+        </is>
+      </c>
+      <c r="Y3" s="5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="Z3" s="5" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="AA3" s="5" t="inlineStr"/>
+      <c r="AB3" s="5" t="inlineStr">
+        <is>
+          <t>ZH</t>
+        </is>
+      </c>
+      <c r="AC3" s="5" t="n"/>
+      <c r="AD3" s="5" t="inlineStr">
+        <is>
+          <t>pakadmin</t>
+        </is>
+      </c>
+      <c r="AE3" s="5" t="inlineStr">
+        <is>
+          <t>2021-02-24 13:48:56</t>
+        </is>
+      </c>
+      <c r="AF3" s="5" t="inlineStr">
+        <is>
+          <t>indiaadmin</t>
+        </is>
+      </c>
+      <c r="AG3" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-18 13:57:12</t>
+        </is>
+      </c>
+      <c r="AH3" s="5" t="n"/>
+      <c r="AI3" s="5" t="n"/>
+      <c r="AJ3" s="5" t="n"/>
+      <c r="AK3" s="5" t="n"/>
+      <c r="AL3" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Transsion</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>wjkTS004</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>wjk传音员工20230111145944</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>Infinix,itel,TECNO</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>wjkadmin</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>wjk管理</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>West Africa IV</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Kaolack Dept</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr"/>
-      <c r="M3" s="4" t="inlineStr"/>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>Kaolack</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>Kaolack</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Kaolack</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>Kaolack</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="4" t="n"/>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="Q4" s="5" t="n"/>
+      <c r="R4" s="5" t="n"/>
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>On Service</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>18650429</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>fuxingyu</t>
-        </is>
-      </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>ContactNo20221215170345</t>
-        </is>
-      </c>
-      <c r="X3" s="4" t="inlineStr">
-        <is>
-          <t>JIAKE.WENG@TRANSSION.COM</t>
-        </is>
-      </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
+        <is>
+          <t>18650493</t>
+        </is>
+      </c>
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>翁佳柯</t>
+        </is>
+      </c>
+      <c r="V4" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>ContactNo20230111145944</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="inlineStr"/>
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
-        <is>
-          <t>2021-12-30</t>
-        </is>
-      </c>
-      <c r="AA3" s="4" t="inlineStr"/>
-      <c r="AB3" s="4" t="inlineStr">
-        <is>
-          <t>ZH</t>
-        </is>
-      </c>
-      <c r="AC3" s="4" t="n"/>
-      <c r="AD3" s="4" t="inlineStr">
-        <is>
-          <t>pakadmin</t>
-        </is>
-      </c>
-      <c r="AE3" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-28 06:26:59</t>
-        </is>
-      </c>
-      <c r="AF3" s="4" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-13</t>
+        </is>
+      </c>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="5" t="inlineStr"/>
+      <c r="AC4" s="5" t="inlineStr"/>
+      <c r="AD4" s="5" t="inlineStr">
         <is>
           <t>18650493</t>
         </is>
       </c>
-      <c r="AG3" s="4" t="inlineStr">
-        <is>
-          <t>2022-12-13 07:08:53</t>
-        </is>
-      </c>
-      <c r="AH3" s="4" t="n"/>
-      <c r="AI3" s="4" t="n"/>
-      <c r="AJ3" s="4" t="n"/>
-      <c r="AK3" s="4" t="n"/>
-      <c r="AL3" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" customFormat="1" s="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Transsion</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>wjkTS004</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>wjk传音员工20221215170345</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>Infinix,itel,TECNO</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>wjk管理</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>West Africa IV</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Kaolack Dept</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Kaolack</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>Kaolack</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>Kaolack</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>Kaolack</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="inlineStr">
-        <is>
-          <t>On Service</t>
-        </is>
-      </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="AE4" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-13 10:00:20</t>
+        </is>
+      </c>
+      <c r="AF4" s="5" t="inlineStr">
         <is>
           <t>18650493</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
-        <is>
-          <t>翁佳柯</t>
-        </is>
-      </c>
-      <c r="V4" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W4" s="4" t="inlineStr">
-        <is>
-          <t>ContactNo20221215170345</t>
-        </is>
-      </c>
-      <c r="X4" s="4" t="inlineStr"/>
-      <c r="Y4" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="Z4" s="4" t="inlineStr">
-        <is>
-          <t>2022-12-13</t>
-        </is>
-      </c>
-      <c r="AA4" s="4" t="inlineStr"/>
-      <c r="AB4" s="4" t="inlineStr"/>
-      <c r="AC4" s="4" t="inlineStr"/>
-      <c r="AD4" s="4" t="inlineStr">
-        <is>
-          <t>18650493</t>
-        </is>
-      </c>
-      <c r="AE4" s="4" t="inlineStr">
+      <c r="AG4" s="5" t="inlineStr">
         <is>
           <t>2022-12-13 10:00:20</t>
         </is>
       </c>
-      <c r="AF4" s="4" t="inlineStr">
-        <is>
-          <t>18650493</t>
-        </is>
-      </c>
-      <c r="AG4" s="4" t="inlineStr">
-        <is>
-          <t>2022-12-13 10:00:20</t>
-        </is>
-      </c>
-      <c r="AH4" s="4" t="n"/>
-      <c r="AI4" s="4" t="n"/>
-      <c r="AJ4" s="4" t="n"/>
-      <c r="AK4" s="4" t="n"/>
-      <c r="AL4" s="4" t="inlineStr">
+      <c r="AH4" s="5" t="n"/>
+      <c r="AI4" s="5" t="n"/>
+      <c r="AJ4" s="5" t="n"/>
+      <c r="AK4" s="5" t="n"/>
+      <c r="AL4" s="5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
